--- a/2021.xlsx
+++ b/2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{263BA28E-A2A2-42F0-8C88-D31F40A093B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D8F28A-457A-4207-A267-0DBFF86FBBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{97070E81-0F0A-4076-B71E-AEABD1E5264A}"/>
+    <workbookView xWindow="4044" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{97070E81-0F0A-4076-B71E-AEABD1E5264A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB18DF97-CB9C-4F6E-985D-C52A058189B4}">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3629,6 +3629,32 @@
         <v>19</v>
       </c>
     </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <v>9</v>
+      </c>
+      <c r="F124">
+        <v>33</v>
+      </c>
+      <c r="G124">
+        <v>39</v>
+      </c>
+      <c r="H124">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
